--- a/biology/Histoire de la zoologie et de la botanique/Wayne_Eyer_Manning/Wayne_Eyer_Manning.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wayne_Eyer_Manning/Wayne_Eyer_Manning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wayne Eyer Manning est un botaniste américain, né le 12 avril 1899 et mort le 8 février 2004.
 Il obtient son Bachelor of Sciences à l’Oberlin College en 1920 et son Ph. D. à l'université Cornell en 1926. Son sujet de thèse porte sur l’anatomie florale des Juglandaceae. Il enseigne un an à Cornell puis un an à l’université de l’Illinois à Urbana, il rejoint le Smith College où il enseigne de 1928 à 1941. Il rejoint, en 1945, l’université Ducknell où il travaille jusqu’à sa retraite en 1968. Manning fait paraître plus de 40 publications consacrées principalement aux Juglandaceae.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Notice nécrologique de Warren G. Abrahamson parue dans Plant Science Bulletin, 50 (2) - Summer 2004 (en anglais)
 W.E.Manning est l’abréviation botanique standard de Wayne Eyer Manning.
